--- a/src/main/resources/caseconf/userQueryUserInfoByUserId/Case_userQueryUserInfoByUserId.xlsx
+++ b/src/main/resources/caseconf/userQueryUserInfoByUserId/Case_userQueryUserInfoByUserId.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="94">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -355,32 +355,6 @@
   <si>
     <t>{
 "tenantId": "consume",
-"userId": "693145221335302144",
-"dataType":"1",
-"dataDetail":"mobileNo,name"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantId": "CONSUME",
-        "tenantUserId": "005",
-        "userId": 693145221335302144,
-        "name": "小芳",
-        "mobileNo": "18899934567",
-        "createTime": "2020-03-27 16:11:39",
-        "updateTime": "2020-03-27 16:11:39"
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "consume",
 "userId": "0051",
 "dataType":"1",
 "dataDetail":"mobileNo,name"
@@ -388,60 +362,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"tenantId": "consume",
-"userId": "693145221335302144"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantId": "CONSUME",
-        "tenantUserId": "005",
-        "userId": 693145221335302144,
-        "name": "小*",
-        "mobileNo": "188****4567",
-        "certNo": "3412**********0000",
-        "email": "1234***@126.com",
-        "createTime": "2020-03-27 16:11:39",
-        "updateTime": "2020-03-27 16:11:39"
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>/queryUserInfoByUserId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "consume",
-"userId": "693145221335302144",
-"dataType":"1"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantId": "CONSUME",
-        "tenantUserId": "005",
-        "userId": 693145221335302144,
-        "name": "小芳",
-        "mobileNo": "18899934567",
-        "certNo": "341222199303040000",
-        "email": "1234567@126.com",
-        "createTime": "2020-03-27 16:11:39",
-        "updateTime": "2020-03-27 16:11:39"
-    }
-}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -486,10 +407,162 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>非必传参数-dataType为4</t>
+    <rPh sb="14" eb="15">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 "tenantId": "consume",
 "userId": "693145221335302144",
-"dataType":""
+"dataType":"4"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0014",
+    "resMsg": "系统异常",
+    "successful": 0
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-dataType为weqeq</t>
+    <rPh sb="14" eb="15">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "consume",
+"userId": "693145221335302144",
+"dataType":"weqeq"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0014",
+    "resMsg": "系统异常",
+    "successful": 0
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-dataDetail为dwewr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+必传参数-userId为空</t>
+  </si>
+  <si>
+    <t>{
+"tenantId": "consume",
+"userId": "",
+"dataType":"2",
+"dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.queryUserInfoByUserId(***.web.request.QueryUserInfoByUserIdReq): [Field error in object 'queryUserInfoByUserIdReq' on field 'userId': rejected value [null]; codes [NotNull.queryUserInfoByUserIdReq.userId,NotNull.userId,NotNull.java.lang.Long,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [queryUserInfoByUserIdReq.userId,userId]; arguments []; default message [userId]]; default message [用户中心id不允许为空]] "
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>必传参数缺失-tuserId</t>
+    <rPh sb="0" eb="1">
+      <t>bi'chuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cna'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>que'shi</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "consume",
+"dataType":"2",
+"dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>userQueryUserInfoByUserId-001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userQueryUserInfoByUserId-002</t>
+  </si>
+  <si>
+    <t>userQueryUserInfoByUserId-003</t>
+  </si>
+  <si>
+    <t>userQueryUserInfoByUserId-004</t>
+  </si>
+  <si>
+    <t>userQueryUserInfoByUserId-005</t>
+  </si>
+  <si>
+    <t>userQueryUserInfoByUserId-006</t>
+  </si>
+  <si>
+    <t>userQueryUserInfoByUserId-007</t>
+  </si>
+  <si>
+    <t>userQueryUserInfoByUserId-008</t>
+  </si>
+  <si>
+    <t>userQueryUserInfoByUserId-009</t>
+  </si>
+  <si>
+    <t>userQueryUserInfoByUserId-010</t>
+  </si>
+  <si>
+    <t>userQueryUserInfoByUserId-011</t>
+  </si>
+  <si>
+    <t>userQueryUserInfoByUserId-012</t>
+  </si>
+  <si>
+    <t>userQueryUserInfoByUserId-013</t>
+  </si>
+  <si>
+    <t>userQueryUserInfoByUserId-014</t>
+  </si>
+  <si>
+    <t>userQueryUserInfoByUserId-015</t>
+  </si>
+  <si>
+    <t>userQueryUserInfoByUserId-016</t>
+  </si>
+  <si>
+    <t>userQueryUserInfoByUserId-017</t>
+  </si>
+  <si>
+    <t>userQueryUserInfoByUserId-018</t>
+  </si>
+  <si>
+    <t>userQueryUserInfoByUserId-019</t>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userId": " 699222007535509504",
+"dataType":"1",
+"dataDetail":"mobileNo,name"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -499,81 +572,23 @@
     "resMsg": "成功",
     "successful": 1,
     "data": {
-        "tenantId": "CONSUME",
-        "tenantUserId": "005",
-        "userId": 693145221335302144,
-        "name": "小*",
-        "mobileNo": "188****4567",
-        "certNo": "3412**********0000",
-        "email": "1234***@126.com",
-        "createTime": "2020-03-27 16:11:39",
-        "updateTime": "2020-03-27 16:11:39"
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 699222007535509504,
+        "name": "李四",
+        "mobileNo": "15510556733",
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
     }
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>非必传参数-dataType为4</t>
-    <rPh sb="14" eb="15">
-      <t>wei</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "consume",
-"userId": "693145221335302144",
-"dataType":"4"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0014",
-    "resMsg": "系统异常",
-    "successful": 0
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>非必传参数-dataType为weqeq</t>
-    <rPh sb="14" eb="15">
-      <t>wei</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "consume",
-"userId": "693145221335302144",
-"dataType":"weqeq"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0014",
-    "resMsg": "系统异常",
-    "successful": 0
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "consume",
-"userId": "693145221335302144",
-"dataType":"2",
-"dataDetail":"all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "consume",
-"userId": "693145221335302144",
-"dataType":"2",
-"dataDetail":"name,certNo"
-}</t>
+    <t xml:space="preserve">{
+"tenantId": "1001",
+"userId": " 699222007535509504"
+}
+</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -582,25 +597,36 @@
     "resMsg": "成功",
     "successful": 1,
     "data": {
-        "tenantId": "CONSUME",
-        "tenantUserId": "005",
-        "userId": 693145221335302144,
-        "name": "98ac8b2e18dbe4d5d48476c3e4a6117a",
-        "certNo": "2bb6fa304390f4ebdf1479372649b515",
-        "createTime": "2020-03-27 16:11:39",
-        "updateTime": "2020-03-27 16:11:39"
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 699222007535509504,
+        "name": "李*",
+        "mobileNo": "155****6733",
+        "certNo": "5412**********0000",
+        "email": "3234***@126.com",
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
     }
 }</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"tenantId": "1001",
+"userId": " 699222007535509504",
+"dataType":"0"
+}
+</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 {
-"tenantId": "123",
-"userId": "694640163258183680",
-"dataType":"2",
-"dataDetail":"all"
-}</t>
+"tenantId": "1001",
+"userId": " 699222007535509504",
+"dataType":"1"
+}
+</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -609,21 +635,25 @@
     "resMsg": "成功",
     "successful": 1,
     "data": {
-        "tenantId": "123",
-        "tenantUserId": "679",
-        "userId": 694640163258183680,
-        "createTime": "2020-03-31 19:12:01",
-        "updateTime": "2020-03-31 19:12:01"
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 699222007535509504,
+        "name": "李四",
+        "mobileNo": "15510556733",
+        "certNo": "541222199303040000",
+        "email": "3234567@126.com",
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
     }
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"tenantId": "consume",
-"userId": "693145221335302144",
-"dataType":"2",
-"dataDetail":"name1,certNo333"
+    <t xml:space="preserve">
+{
+"tenantId": "1001",
+"userId": " 699222007535509504",
+"dataType":"2"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -633,94 +663,27 @@
     "resMsg": "成功",
     "successful": 1,
     "data": {
-        "tenantId": "CONSUME",
-        "tenantUserId": "005",
-        "userId": 693145221335302144,
-        "createTime": "2020-03-27 16:11:39",
-        "updateTime": "2020-03-27 16:11:39"
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 699222007535509504,
+        "name": "a4292d5e92be734194926548ec6e3cf6",
+        "mobileNo": "74108036c205aedb06337232d5a01f03",
+        "certNo": "d508ebd3c36b9297a99a7354e0ae4f74",
+        "email": "03065f0f961760adf3d79341ac1972e2",
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
     }
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>非必传参数-dataDetail为dwewr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "consume",
-"userId": "693145221335302144",
-"dataType":"2",
-"dataDetail":"dwewr"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "",
-"userId": "693145221335302144",
-"dataType":"2",
-"dataDetail":"all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
-必传参数-userId为空</t>
-  </si>
-  <si>
-    <t>{
-"tenantId": "consume",
-"userId": "",
-"dataType":"2",
-"dataDetail":"all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.queryUserInfoByUserId(***.web.request.QueryUserInfoByUserIdReq): [Field error in object 'queryUserInfoByUserIdReq' on field 'userId': rejected value [null]; codes [NotNull.queryUserInfoByUserIdReq.userId,NotNull.userId,NotNull.java.lang.Long,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [queryUserInfoByUserIdReq.userId,userId]; arguments []; default message [userId]]; default message [用户中心id不允许为空]] "
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"userId": "693145221335302144",
-"dataType":"2",
-"dataDetail":"all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>必传参数缺失-tuserId</t>
-    <rPh sb="0" eb="1">
-      <t>bi'chuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cna'shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>que'shi</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "consume",
-"dataType":"2",
-"dataDetail":"all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "consume",
-"userId": "693145221335302144",
-"dataType":"0"
-}</t>
+{
+"tenantId": "1001",
+"userId": " 699222007535509504",
+"dataType":""
+}
+</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -729,76 +692,169 @@
     "resMsg": "成功",
     "successful": 1,
     "data": {
-        "tenantId": "CONSUME",
-        "tenantUserId": "005",
-        "userId": 693145221335302144,
-        "name": "小*",
-        "mobileNo": "188****4567",
-        "certNo": "3412**********0000",
-        "email": "1234***@126.com",
-        "createTime": "2020-03-27 16:11:39",
-        "updateTime": "2020-03-27 16:11:39"
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 699222007535509504,
+        "name": "李*",
+        "mobileNo": "155****6733",
+        "certNo": "5412**********0000",
+        "email": "3234***@126.com",
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
     }
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>userQueryUserInfoByUserId-001</t>
+    <t xml:space="preserve">
+{
+"tenantId": "1001",
+"userId": " 699222007535509504",
+"dataType":"2",
+"dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": {
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 699222007535509504,
+        "name": "a4292d5e92be734194926548ec6e3cf6",
+        "mobileNo": "74108036c205aedb06337232d5a01f03",
+        "certNo": "d508ebd3c36b9297a99a7354e0ae4f74",
+        "email": "03065f0f961760adf3d79341ac1972e2",
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userId": " 699222007535509504",
+"dataType":"2",
+"dataDetail":"name,certNo"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": {
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 699222007535509504,
+        "name": "a4292d5e92be734194926548ec6e3cf6",
+        "certNo": "d508ebd3c36b9297a99a7354e0ae4f74",
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"tenantId": "1001",
+"userId": " 699222007535509504",
+"dataType":"2",
+"dataDetail":"all"
+}
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userId": " 699222007535509504",
+"dataType":"2",
+"dataDetail":"name1,certNo333"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": {
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 699222007535509504,
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userId": " 699222007535509504",
+"dataType":"2",
+"dataDetail":"dwewr"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userId": " 699222007535509504",
+"dataType":"2",
+"dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userId": " 699222007535509504",
+"dataType":"2",
+"dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": {
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 699222007535509504,
+        "name": "a4292d5e92be734194926548ec6e3cf6",
+        "mobileNo": "74108036c205aedb06337232d5a01f03",
+        "certNo": "d508ebd3c36b9297a99a7354e0ae4f74",
+        "email": "03065f0f961760adf3d79341ac1972e2",
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
+    }
+}
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>userQueryUserInfoByUserId-002</t>
-  </si>
-  <si>
-    <t>userQueryUserInfoByUserId-003</t>
-  </si>
-  <si>
-    <t>userQueryUserInfoByUserId-004</t>
-  </si>
-  <si>
-    <t>userQueryUserInfoByUserId-005</t>
-  </si>
-  <si>
-    <t>userQueryUserInfoByUserId-006</t>
-  </si>
-  <si>
-    <t>userQueryUserInfoByUserId-007</t>
-  </si>
-  <si>
-    <t>userQueryUserInfoByUserId-008</t>
-  </si>
-  <si>
-    <t>userQueryUserInfoByUserId-009</t>
-  </si>
-  <si>
-    <t>userQueryUserInfoByUserId-010</t>
-  </si>
-  <si>
-    <t>userQueryUserInfoByUserId-011</t>
-  </si>
-  <si>
-    <t>userQueryUserInfoByUserId-012</t>
-  </si>
-  <si>
-    <t>userQueryUserInfoByUserId-013</t>
-  </si>
-  <si>
-    <t>userQueryUserInfoByUserId-014</t>
-  </si>
-  <si>
-    <t>userQueryUserInfoByUserId-015</t>
-  </si>
-  <si>
-    <t>userQueryUserInfoByUserId-016</t>
-  </si>
-  <si>
-    <t>userQueryUserInfoByUserId-017</t>
-  </si>
-  <si>
-    <t>userQueryUserInfoByUserId-018</t>
-  </si>
-  <si>
-    <t>userQueryUserInfoByUserId-019</t>
+    <t>delete from user_request_serial where tenant_id = 1001;
+delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1287,9 +1343,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1363,20 +1419,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="13" customFormat="1" ht="196">
+    <row r="2" spans="1:16" s="13" customFormat="1" ht="409.5">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="F2" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="H2" s="10" t="s">
         <v>16</v>
       </c>
@@ -1387,11 +1447,11 @@
         <v>14</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="19" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="N2" s="9"/>
       <c r="O2" s="12"/>
@@ -1401,7 +1461,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>20</v>
@@ -1420,7 +1480,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="19" t="s">
@@ -1434,7 +1494,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>21</v>
@@ -1453,11 +1513,11 @@
         <v>14</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="L4" s="18"/>
       <c r="M4" s="19" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="12"/>
@@ -1467,7 +1527,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>22</v>
@@ -1480,17 +1540,17 @@
         <v>16</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J5" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="12"/>
@@ -1500,7 +1560,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>23</v>
@@ -1513,27 +1573,27 @@
         <v>16</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J6" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="L6" s="18"/>
       <c r="M6" s="19" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:16" s="13" customFormat="1" ht="266">
+    <row r="7" spans="1:16" s="13" customFormat="1" ht="280">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>24</v>
@@ -1546,17 +1606,17 @@
         <v>16</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J7" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="L7" s="18"/>
       <c r="M7" s="19" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="12"/>
@@ -1566,10 +1626,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -1579,17 +1639,17 @@
         <v>16</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J8" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="L8" s="18"/>
       <c r="M8" s="19" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="12"/>
@@ -1599,10 +1659,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -1612,17 +1672,17 @@
         <v>16</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J9" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="19" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="12"/>
@@ -1632,10 +1692,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -1645,17 +1705,17 @@
         <v>16</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J10" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="L10" s="18"/>
       <c r="M10" s="19" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="12"/>
@@ -1665,7 +1725,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>25</v>
@@ -1678,27 +1738,27 @@
         <v>16</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:16" s="13" customFormat="1" ht="266">
+    <row r="12" spans="1:16" s="13" customFormat="1" ht="280">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>26</v>
@@ -1711,17 +1771,17 @@
         <v>16</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J12" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="L12" s="18"/>
       <c r="M12" s="19" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="N12" s="11"/>
       <c r="O12" s="12"/>
@@ -1731,7 +1791,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>27</v>
@@ -1744,17 +1804,17 @@
         <v>16</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J13" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="19" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="12"/>
@@ -1764,7 +1824,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>28</v>
@@ -1783,11 +1843,11 @@
         <v>14</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="L14" s="21"/>
       <c r="M14" s="22" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="12"/>
@@ -1797,30 +1857,30 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J15" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="19" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
@@ -1830,10 +1890,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -1843,17 +1903,17 @@
         <v>16</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J16" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="L16" s="21"/>
       <c r="M16" s="22" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="12"/>
@@ -1863,7 +1923,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>30</v>
@@ -1876,17 +1936,17 @@
         <v>16</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J17" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="L17" s="18"/>
       <c r="M17" s="25" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N17" s="14"/>
       <c r="O17" s="12"/>
@@ -1896,10 +1956,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -1909,17 +1969,17 @@
         <v>16</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J18" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="25" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="12"/>
@@ -1929,7 +1989,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>15</v>
@@ -1942,17 +2002,17 @@
         <v>16</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J19" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="L19" s="24"/>
       <c r="M19" s="25" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="N19" s="14"/>
       <c r="O19" s="12"/>
@@ -1962,10 +2022,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -1975,17 +2035,17 @@
         <v>16</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J20" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="L20" s="24"/>
       <c r="M20" s="25" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="12"/>

--- a/src/main/resources/caseconf/userQueryUserInfoByUserId/Case_userQueryUserInfoByUserId.xlsx
+++ b/src/main/resources/caseconf/userQueryUserInfoByUserId/Case_userQueryUserInfoByUserId.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="100">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -761,16 +761,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">{
-"tenantId": "1001",
-"userId": " 699222007535509504",
-"dataType":"2",
-"dataDetail":"all"
-}
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "tenantId": "1001",
 "userId": " 699222007535509504",
@@ -791,15 +781,6 @@
         "createTime": "2020-03-28 21:49:59",
         "updateTime": "2020-03-28 21:49:59"
     }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "1001",
-"userId": " 699222007535509504",
-"dataType":"2",
-"dataDetail":"dwewr"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -841,19 +822,97 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>delete from user_request_serial where tenant_id = 1001;
+delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
+insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>delete from user_request_serial where tenant_id = 1001;
-delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;</t>
+    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": {
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 699222007535509504,
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userId": " 699222007535509504",
+"dataType":"2",
+"dataDetail":"dwewr"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": {
+        "tenantId": "1001",
+        "tenantUserId": "110",
+        "userId": 793145221335302333,
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userId": "793145221335302333",
+"dataType":"2",
+"dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_basic_info values ("793145221335302333","1001","110",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("793145221335302333","1001","110",NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,"2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id =110  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id =110 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 110 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1344,8 +1403,8 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1435,7 +1494,7 @@
         <v>92</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>16</v>
@@ -1489,7 +1548,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="12"/>
     </row>
-    <row r="4" spans="1:16" s="13" customFormat="1" ht="224">
+    <row r="4" spans="1:16" s="13" customFormat="1" ht="409.5">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1501,8 +1560,12 @@
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="H4" s="10" t="s">
         <v>16</v>
       </c>
@@ -1522,7 +1585,7 @@
       <c r="N4" s="9"/>
       <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="1:16" s="13" customFormat="1" ht="224">
+    <row r="5" spans="1:16" s="13" customFormat="1" ht="409.5">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1534,8 +1597,12 @@
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="F5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="H5" s="10" t="s">
         <v>16</v>
       </c>
@@ -1555,7 +1622,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="1:16" s="13" customFormat="1" ht="224">
+    <row r="6" spans="1:16" s="13" customFormat="1" ht="409.5">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1567,8 +1634,12 @@
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="F6" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="H6" s="10" t="s">
         <v>16</v>
       </c>
@@ -1588,7 +1659,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:16" s="13" customFormat="1" ht="280">
+    <row r="7" spans="1:16" s="13" customFormat="1" ht="409.5">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1600,8 +1671,12 @@
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="H7" s="10" t="s">
         <v>16</v>
       </c>
@@ -1621,7 +1696,7 @@
       <c r="N7" s="9"/>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:16" s="13" customFormat="1" ht="224">
+    <row r="8" spans="1:16" s="13" customFormat="1" ht="409.5">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1633,8 +1708,12 @@
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="H8" s="10" t="s">
         <v>16</v>
       </c>
@@ -1753,7 +1832,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:16" s="13" customFormat="1" ht="280">
+    <row r="12" spans="1:16" s="13" customFormat="1" ht="409.5">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1765,8 +1844,12 @@
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="F12" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="H12" s="10" t="s">
         <v>16</v>
       </c>
@@ -1786,7 +1869,7 @@
       <c r="N12" s="11"/>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="1:16" s="13" customFormat="1" ht="224">
+    <row r="13" spans="1:16" s="13" customFormat="1" ht="409.5">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1798,8 +1881,12 @@
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="F13" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="H13" s="10" t="s">
         <v>16</v>
       </c>
@@ -1831,8 +1918,12 @@
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="F14" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="H14" s="10" t="s">
         <v>16</v>
       </c>
@@ -1843,11 +1934,11 @@
         <v>14</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="L14" s="21"/>
       <c r="M14" s="22" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="12"/>
@@ -1864,8 +1955,12 @@
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="F15" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="H15" s="10" t="s">
         <v>16</v>
       </c>
@@ -1876,16 +1971,16 @@
         <v>14</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="19" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:16" s="13" customFormat="1" ht="168">
+    <row r="16" spans="1:16" s="13" customFormat="1" ht="409.5">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -1897,8 +1992,12 @@
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="F16" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="H16" s="10" t="s">
         <v>16</v>
       </c>
@@ -1909,11 +2008,11 @@
         <v>14</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L16" s="21"/>
       <c r="M16" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="12"/>
@@ -1930,8 +2029,12 @@
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="F17" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="H17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1942,7 +2045,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L17" s="18"/>
       <c r="M17" s="25" t="s">
@@ -1963,8 +2066,12 @@
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="F18" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="H18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1996,8 +2103,12 @@
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="F19" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="H19" s="10" t="s">
         <v>16</v>
       </c>
@@ -2008,11 +2119,11 @@
         <v>14</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L19" s="24"/>
       <c r="M19" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N19" s="14"/>
       <c r="O19" s="12"/>

--- a/src/main/resources/caseconf/userQueryUserInfoByUserId/Case_userQueryUserInfoByUserId.xlsx
+++ b/src/main/resources/caseconf/userQueryUserInfoByUserId/Case_userQueryUserInfoByUserId.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="9230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10070"/>
   </bookViews>
   <sheets>
     <sheet name="userQueryUserInfoByUserId" sheetId="2" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -829,24 +829,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "resCode": "E0000",
     "resMsg": "成功",
@@ -862,15 +844,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "tenantId": "1001",
 "userId": " 699222007535509504",
@@ -904,15 +877,25 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_basic_info values ("793145221335302333","1001","110",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("793145221335302333","1001","110",NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,"2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>delete from user_basic_info where tenant_user_id =110  and tenant_id = 1001;
 delete from user_info_item where tenant_user_id =110 and tenant_id = 1001;
 delete from user_index where tenant_user_id = 110 and tenant_id = 1001;
 delete from user_request_serial where tenant_id = 1001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("793145221335302333","1001","110",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("793145221335302333","1001","110",NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,"2020-03-29 21:49:59","2020-03-29 21:49:59")
+</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1403,8 +1386,8 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1491,7 +1474,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>90</v>
@@ -1561,7 +1544,7 @@
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>90</v>
@@ -1598,7 +1581,7 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>90</v>
@@ -1635,7 +1618,7 @@
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>90</v>
@@ -1672,7 +1655,7 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>90</v>
@@ -1709,7 +1692,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>90</v>
@@ -1845,7 +1828,7 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>90</v>
@@ -1882,7 +1865,7 @@
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>90</v>
@@ -1906,7 +1889,7 @@
       <c r="N13" s="11"/>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" spans="1:16" s="13" customFormat="1" ht="132.65" customHeight="1">
+    <row r="14" spans="1:16" s="13" customFormat="1" ht="230.5" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1919,10 +1902,10 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>16</v>
@@ -1934,16 +1917,16 @@
         <v>14</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L14" s="21"/>
       <c r="M14" s="22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" ht="120.65" customHeight="1">
+    <row r="15" spans="1:16" s="13" customFormat="1" ht="214.5" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1956,10 +1939,10 @@
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>16</v>
@@ -1975,7 +1958,7 @@
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
@@ -1993,10 +1976,10 @@
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>16</v>
@@ -2008,7 +1991,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L16" s="21"/>
       <c r="M16" s="22" t="s">
@@ -2030,10 +2013,10 @@
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>16</v>
@@ -2067,10 +2050,10 @@
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>16</v>
@@ -2104,10 +2087,10 @@
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>16</v>

--- a/src/main/resources/caseconf/userQueryUserInfoByUserId/Case_userQueryUserInfoByUserId.xlsx
+++ b/src/main/resources/caseconf/userQueryUserInfoByUserId/Case_userQueryUserInfoByUserId.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform1111/src/main/resources/caseconf/userQueryUserInfoByUserId/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10070"/>
+    <workbookView xWindow="-320" yWindow="-20660" windowWidth="36100" windowHeight="20360"/>
   </bookViews>
   <sheets>
     <sheet name="userQueryUserInfoByUserId" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +35,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="105">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -301,25 +312,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>非必传参数-dataDetail为创建时为空参数</t>
-    <rPh sb="16" eb="17">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>chuang'jian'shi</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>kong</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>can'shu</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>非必传参数-dataDetail为 name11</t>
     <rPh sb="16" eb="17">
       <t>wei</t>
@@ -353,24 +345,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"tenantId": "consume",
-"userId": "0051",
-"dataType":"1",
-"dataDetail":"mobileNo,name"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>/queryUserInfoByUserId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "consume",
-"userId": "693145221335302144",
-"dataType":"2"
-}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -415,14 +390,6 @@
   </si>
   <si>
     <t>{
-"tenantId": "consume",
-"userId": "693145221335302144",
-"dataType":"4"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
     "resCode": "E0014",
     "resMsg": "系统异常",
     "successful": 0
@@ -438,14 +405,6 @@
   </si>
   <si>
     <t>{
-"tenantId": "consume",
-"userId": "693145221335302144",
-"dataType":"weqeq"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
     "resCode": "E0014",
     "resMsg": "系统异常",
     "successful": 0
@@ -459,15 +418,6 @@
   <si>
     <t xml:space="preserve">
 必传参数-userId为空</t>
-  </si>
-  <si>
-    <t>{
-"tenantId": "consume",
-"userId": "",
-"dataType":"2",
-"dataDetail":"all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -489,14 +439,6 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "consume",
-"dataType":"2",
-"dataDetail":"all"
-}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -677,16 +619,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-{
-"tenantId": "1001",
-"userId": " 699222007535509504",
-"dataType":""
-}
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "resCode": "E0000",
     "resMsg": "成功",
@@ -757,47 +689,6 @@
         "createTime": "2020-03-28 21:49:59",
         "updateTime": "2020-03-28 21:49:59"
     }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "1001",
-"userId": " 699222007535509504",
-"dataType":"2",
-"dataDetail":"name1,certNo333"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantId": "1001",
-        "tenantUserId": "000113",
-        "userId": 699222007535509504,
-        "createTime": "2020-03-28 21:49:59",
-        "updateTime": "2020-03-28 21:49:59"
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "1001",
-"userId": " 699222007535509504",
-"dataType":"2",
-"dataDetail":"all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"userId": " 699222007535509504",
-"dataType":"2",
-"dataDetail":"all"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -822,37 +713,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>delete from user_request_serial where tenant_id = 1001;
-delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantId": "1001",
-        "tenantUserId": "000113",
-        "userId": 699222007535509504,
-        "createTime": "2020-03-28 21:49:59",
-        "updateTime": "2020-03-28 21:49:59"
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "1001",
-"userId": " 699222007535509504",
-"dataType":"2",
-"dataDetail":"dwewr"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "resCode": "E0000",
     "resMsg": "成功",
@@ -877,13 +737,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>delete from user_basic_info where tenant_user_id =110  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id =110 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 110 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
@@ -898,12 +751,257 @@
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userId": "0051",
+"dataType":"1",
+"dataDetail":"mobileNo,name"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+"tenantId": "1001",
+"userId": " 699222007535509504",
+"dataType":""
+}
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userId": " 699222007535509504",
+"dataType":"4"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userId": " 699222007535509504",
+"dataType":"weqeq"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userId": " 699222007535509504",
+"dataType":"2"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-dataDetail为创建时为空全部参数</t>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>chuang'jian'shi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>kong</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>quan'bu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-dataDetail为创建时为空参数-部分参数</t>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>chuang'jian'shi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>kong</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>can'shu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userId": "",
+"dataType":"2",
+"dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userId": "793145221335302333",
+"dataType":"2",
+"dataDetail":"name"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"dataType":"2",
+"dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_request_serial where tenant_id = "1001";
+delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";</t>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id =110  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id =110 and tenant_id = "1001";
+delete from user_index where tenant_user_id = 110 and tenant_id = "1001";
+delete from user_request_serial where tenant_id = "1001"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("793145221335302333","1001","110",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("793145221335302333","1001","110",NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,"2020-03-29 21:49:59","2020-03-29 21:49:59")
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userId": " 793145221335302333",
+"dataType":"2",
+"dataDetail":"name1,certNo333"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": {
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 793145221335302333,
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": {
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 793145221335302333,
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userId": " 793145221335302333",
+"dataType":"2",
+"dataDetail":"dwewr"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": {
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 793145221335302333,
+        "name": "a4292d5e92be734194926548ec6e3cf6",
+        "mobileNo": "74108036c205aedb06337232d5a01f03",
+        "certNo": "d508ebd3c36b9297a99a7354e0ae4f74",
+        "email": "03065f0f961760adf3d79341ac1972e2",
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "",
+"userId": " 793145221335302333",
+"dataType":"2",
+"dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userId": " 793145221335302333",
+"dataType":"2",
+"dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1383,35 +1481,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="114" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.08203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="1.08203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="2.58203125" style="8" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="8" customWidth="1"/>
+    <col min="4" max="4" width="1" style="8" customWidth="1"/>
+    <col min="5" max="5" width="2.5" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="93.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="32" style="8" customWidth="1"/>
-    <col min="8" max="8" width="31.9140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="15" customWidth="1"/>
-    <col min="11" max="11" width="43.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.4140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="42.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" style="15" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
     <col min="14" max="14" width="25.83203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="15.08203125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="65.9140625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="15" style="8" customWidth="1"/>
+    <col min="16" max="16" width="65.83203125" style="5" customWidth="1"/>
     <col min="17" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" customHeight="1">
+    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1461,49 +1559,49 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="13" customFormat="1" ht="409.5">
+    <row r="2" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="20" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="19" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="N2" s="9"/>
       <c r="O2" s="12"/>
     </row>
-    <row r="3" spans="1:16" s="13" customFormat="1" ht="84">
+    <row r="3" spans="1:16" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>20</v>
@@ -1516,27 +1614,27 @@
         <v>16</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="12"/>
     </row>
-    <row r="4" spans="1:16" s="13" customFormat="1" ht="409.5">
+    <row r="4" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>21</v>
@@ -1544,36 +1642,36 @@
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="20" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L4" s="18"/>
       <c r="M4" s="19" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="1:16" s="13" customFormat="1" ht="409.5">
+    <row r="5" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>22</v>
@@ -1581,36 +1679,36 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="20" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J5" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="19" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="1:16" s="13" customFormat="1" ht="409.5">
+    <row r="6" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>23</v>
@@ -1618,36 +1716,36 @@
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="20" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J6" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L6" s="18"/>
       <c r="M6" s="19" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:16" s="13" customFormat="1" ht="409.5">
+    <row r="7" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>24</v>
@@ -1655,172 +1753,184 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="20" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J7" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L7" s="18"/>
       <c r="M7" s="19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:16" s="13" customFormat="1" ht="409.5">
+    <row r="8" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="20" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J8" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L8" s="18"/>
       <c r="M8" s="19" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="12"/>
     </row>
-    <row r="9" spans="1:16" s="13" customFormat="1" ht="145.25" customHeight="1">
+    <row r="9" spans="1:16" s="13" customFormat="1" ht="145.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="H9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J9" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="12"/>
     </row>
-    <row r="10" spans="1:16" s="13" customFormat="1" ht="70">
+    <row r="10" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="H10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J10" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="L10" s="18"/>
       <c r="M10" s="19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="112.25" customHeight="1">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="112.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="H11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:16" s="13" customFormat="1" ht="409.5">
+    <row r="12" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>26</v>
@@ -1828,36 +1938,36 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="20" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J12" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L12" s="18"/>
       <c r="M12" s="19" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="N12" s="11"/>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="1:16" s="13" customFormat="1" ht="409.5">
+    <row r="13" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>27</v>
@@ -1865,44 +1975,44 @@
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="20" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J13" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="19" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" spans="1:16" s="13" customFormat="1" ht="230.5" customHeight="1">
+    <row r="14" spans="1:16" s="13" customFormat="1" ht="230.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="20" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>95</v>
@@ -1911,35 +2021,35 @@
         <v>16</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J14" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="L14" s="21"/>
       <c r="M14" s="22" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" ht="214.5" customHeight="1">
+    <row r="15" spans="1:16" s="13" customFormat="1" ht="230.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="20" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>95</v>
@@ -1948,35 +2058,35 @@
         <v>16</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19" t="s">
-        <v>91</v>
+      <c r="K15" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:16" s="13" customFormat="1" ht="409.5">
+    <row r="16" spans="1:16" s="13" customFormat="1" ht="214.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>95</v>
@@ -1985,35 +2095,35 @@
         <v>16</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J16" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="N16" s="9"/>
+      <c r="K16" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="18"/>
+      <c r="M16" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16" s="11"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:15" s="13" customFormat="1" ht="121.25" customHeight="1">
+    <row r="17" spans="1:15" s="13" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="20" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>95</v>
@@ -2022,35 +2132,35 @@
         <v>16</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J17" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="N17" s="14"/>
+        <v>100</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="N17" s="9"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="1:15" s="13" customFormat="1" ht="82.75" customHeight="1">
+    <row r="18" spans="1:15" s="13" customFormat="1" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="20" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>95</v>
@@ -2059,98 +2169,132 @@
         <v>16</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J18" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="19" t="s">
-        <v>47</v>
+      <c r="K18" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="25" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="1:15" s="13" customFormat="1" ht="111" customHeight="1">
+    <row r="19" spans="1:15" s="13" customFormat="1" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>95</v>
-      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J19" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="L19" s="24"/>
+        <v>91</v>
+      </c>
+      <c r="L19" s="18"/>
       <c r="M19" s="25" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="N19" s="14"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="1:15" s="13" customFormat="1" ht="91.25" customHeight="1">
+    <row r="20" spans="1:15" s="13" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="F20" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="H20" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J20" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="L20" s="24"/>
       <c r="M20" s="25" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="12"/>
+    </row>
+    <row r="21" spans="1:15" s="13" customFormat="1" ht="91.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="24"/>
+      <c r="M21" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="14"/>
+      <c r="O21" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2:H20" r:id="rId1" display="https://user-center-thu.tunaikita.id/user"/>
+    <hyperlink ref="H2:H21" r:id="rId1" display="https://user-center-thu.tunaikita.id/user"/>
+    <hyperlink ref="H15" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/src/main/resources/caseconf/userQueryUserInfoByUserId/Case_userQueryUserInfoByUserId.xlsx
+++ b/src/main/resources/caseconf/userQueryUserInfoByUserId/Case_userQueryUserInfoByUserId.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-320" yWindow="-20660" windowWidth="36100" windowHeight="20360"/>
+    <workbookView xWindow="-6960" yWindow="-25360" windowWidth="43860" windowHeight="20360"/>
   </bookViews>
   <sheets>
     <sheet name="userQueryUserInfoByUserId" sheetId="2" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="106">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -346,25 +346,6 @@
   </si>
   <si>
     <t>/queryUserInfoByUserId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantId": "CONSUME",
-        "tenantUserId": "005",
-        "userId": 693145221335302144,
-        "name": "98ac8b2e18dbe4d5d48476c3e4a6117a",
-        "mobileNo": "484e9186760f37b5ac9b12673bc6fbf6",
-        "certNo": "2bb6fa304390f4ebdf1479372649b515",
-        "email": "a71249d4fe6f56f76de86b532ef74c1b",
-        "createTime": "2020-03-27 16:11:39",
-        "updateTime": "2020-03-27 16:11:39"
-    }
-}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -898,47 +879,11 @@
 delete from user_request_serial where tenant_id = "1001"</t>
   </si>
   <si>
-    <t xml:space="preserve">insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("793145221335302333","1001","110",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("793145221335302333","1001","110",NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,"2020-03-29 21:49:59","2020-03-29 21:49:59")
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "tenantId": "1001",
 "userId": " 793145221335302333",
 "dataType":"2",
 "dataDetail":"name1,certNo333"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantId": "1001",
-        "tenantUserId": "000113",
-        "userId": 793145221335302333,
-        "createTime": "2020-03-28 21:49:59",
-        "updateTime": "2020-03-28 21:49:59"
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantId": "1001",
-        "tenantUserId": "000113",
-        "userId": 793145221335302333,
-        "createTime": "2020-03-28 21:49:59",
-        "updateTime": "2020-03-28 21:49:59"
-    }
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -995,6 +940,61 @@
 insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resCode":"E0000","resMsg":"成功","successful":1,"data":</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": {"tenantId":"1001",
+"tenantUserId":"000113",
+"userId":699222007535509504,
+"name":"a4292d5e92be734194926548ec6e3cf6",
+"mobileNo":"74108036c205aedb06337232d5a01f03",
+"certNo":"d508ebd3c36b9297a99a7354e0ae4f74","email":"03065f0f961760adf3d79341ac1972e2",
+"createTime":"2020-03-28 21:49:59",
+"updateTime":"2020-03-28 21:49:59"}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("793145221335302333","1001","110",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("793145221335302333","1001","110",NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,"2020-03-29 21:49:59","2020-03-29 21:49:59")
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": {
+        "tenantId": "1001",
+        "tenantUserId": "110",
+        "userId": 793145221335302333,
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": {
+        "tenantId": "1001",
+        "tenantUserId": "110",
+        "userId": 793145221335302333,
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59"
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1116,7 +1116,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1197,6 +1197,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1483,9 +1486,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="114" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="114" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G5" sqref="G5"/>
+      <selection pane="topRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1564,7 +1567,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>31</v>
@@ -1572,10 +1575,10 @@
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>16</v>
@@ -1587,11 +1590,11 @@
         <v>14</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N2" s="9"/>
       <c r="O2" s="12"/>
@@ -1601,7 +1604,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>20</v>
@@ -1620,7 +1623,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="19" t="s">
@@ -1634,7 +1637,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>21</v>
@@ -1642,10 +1645,10 @@
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>16</v>
@@ -1657,11 +1660,11 @@
         <v>14</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L4" s="18"/>
       <c r="M4" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="12"/>
@@ -1671,7 +1674,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>22</v>
@@ -1679,10 +1682,10 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>16</v>
@@ -1694,11 +1697,11 @@
         <v>14</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="12"/>
@@ -1708,7 +1711,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>23</v>
@@ -1716,10 +1719,10 @@
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>16</v>
@@ -1731,11 +1734,11 @@
         <v>14</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L6" s="18"/>
       <c r="M6" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="12"/>
@@ -1745,7 +1748,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>24</v>
@@ -1753,10 +1756,10 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>16</v>
@@ -1768,11 +1771,11 @@
         <v>14</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L7" s="18"/>
       <c r="M7" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="12"/>
@@ -1782,18 +1785,18 @@
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>16</v>
@@ -1805,11 +1808,11 @@
         <v>14</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L8" s="18"/>
       <c r="M8" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="12"/>
@@ -1819,18 +1822,18 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>16</v>
@@ -1842,11 +1845,11 @@
         <v>14</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="12"/>
@@ -1856,18 +1859,18 @@
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>16</v>
@@ -1879,21 +1882,24 @@
         <v>14</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L10" s="18"/>
       <c r="M10" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="12"/>
+      <c r="P10" s="28" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="112.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="238" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>25</v>
@@ -1901,10 +1907,10 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>16</v>
@@ -1916,11 +1922,11 @@
         <v>14</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="19" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="12"/>
@@ -1930,7 +1936,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>26</v>
@@ -1938,10 +1944,10 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>16</v>
@@ -1953,11 +1959,11 @@
         <v>14</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L12" s="18"/>
       <c r="M12" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N12" s="11"/>
       <c r="O12" s="12"/>
@@ -1967,7 +1973,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>27</v>
@@ -1975,10 +1981,10 @@
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>16</v>
@@ -1990,11 +1996,11 @@
         <v>14</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="12"/>
@@ -2004,18 +2010,18 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>16</v>
@@ -2027,11 +2033,11 @@
         <v>14</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L14" s="21"/>
       <c r="M14" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="12"/>
@@ -2041,18 +2047,18 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>16</v>
@@ -2064,11 +2070,11 @@
         <v>14</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L15" s="21"/>
       <c r="M15" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
@@ -2078,7 +2084,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>28</v>
@@ -2086,10 +2092,10 @@
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="20" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>16</v>
@@ -2101,11 +2107,11 @@
         <v>14</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="19" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="12"/>
@@ -2115,18 +2121,18 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>16</v>
@@ -2138,11 +2144,11 @@
         <v>14</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L17" s="21"/>
       <c r="M17" s="22" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="12"/>
@@ -2152,7 +2158,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>29</v>
@@ -2160,10 +2166,10 @@
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>16</v>
@@ -2175,11 +2181,11 @@
         <v>14</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="12"/>
@@ -2189,10 +2195,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -2208,11 +2214,11 @@
         <v>14</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N19" s="14"/>
       <c r="O19" s="12"/>
@@ -2222,7 +2228,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>15</v>
@@ -2230,10 +2236,10 @@
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>16</v>
@@ -2245,11 +2251,11 @@
         <v>14</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L20" s="24"/>
       <c r="M20" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="12"/>
@@ -2259,10 +2265,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -2278,11 +2284,11 @@
         <v>14</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L21" s="24"/>
       <c r="M21" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="12"/>

--- a/src/main/resources/caseconf/userQueryUserInfoByUserId/Case_userQueryUserInfoByUserId.xlsx
+++ b/src/main/resources/caseconf/userQueryUserInfoByUserId/Case_userQueryUserInfoByUserId.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-6960" yWindow="-25360" windowWidth="43860" windowHeight="20360"/>
+    <workbookView xWindow="-7360" yWindow="-25280" windowWidth="43860" windowHeight="20360"/>
   </bookViews>
   <sheets>
     <sheet name="userQueryUserInfoByUserId" sheetId="2" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="107">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -674,26 +674,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantId": "1001",
-        "tenantUserId": "000113",
-        "userId": 699222007535509504,
-        "name": "a4292d5e92be734194926548ec6e3cf6",
-        "mobileNo": "74108036c205aedb06337232d5a01f03",
-        "certNo": "d508ebd3c36b9297a99a7354e0ae4f74",
-        "email": "03065f0f961760adf3d79341ac1972e2",
-        "createTime": "2020-03-28 21:49:59",
-        "updateTime": "2020-03-28 21:49:59"
-    }
-}
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "resCode": "E0000",
     "resMsg": "成功",
@@ -893,42 +873,6 @@
 "userId": " 793145221335302333",
 "dataType":"2",
 "dataDetail":"dwewr"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantId": "1001",
-        "tenantUserId": "000113",
-        "userId": 793145221335302333,
-        "name": "a4292d5e92be734194926548ec6e3cf6",
-        "mobileNo": "74108036c205aedb06337232d5a01f03",
-        "certNo": "d508ebd3c36b9297a99a7354e0ae4f74",
-        "email": "03065f0f961760adf3d79341ac1972e2",
-        "createTime": "2020-03-28 21:49:59",
-        "updateTime": "2020-03-28 21:49:59"
-    }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "",
-"userId": " 793145221335302333",
-"dataType":"2",
-"dataDetail":"all"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"userId": " 793145221335302333",
-"dataType":"2",
-"dataDetail":"all"
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -996,12 +940,44 @@
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>https://user-center-thu.tunaikita.id/user</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/queryUserInfoByUserId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_request_serial where tenant_id = "1001";
+delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userId": " 699222007535509504",
+"dataType":"2",
+"dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "",
+"userId": " 699222007535509504",
+"dataType":"2",
+"dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1055,15 +1031,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="81"/>
@@ -1107,16 +1074,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1145,9 +1109,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1184,9 +1145,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1202,11 +1160,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1486,26 +1452,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="114" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="114" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F18" sqref="F18"/>
+      <selection pane="topRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14" style="29" customWidth="1"/>
     <col min="4" max="4" width="1" style="8" customWidth="1"/>
     <col min="5" max="5" width="2.5" style="8" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="93.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="32" style="8" customWidth="1"/>
     <col min="8" max="8" width="31.83203125" style="8" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="29.83203125" style="8" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="24.1640625" style="15" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" style="14" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="43.6640625" style="5" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="56.6640625" style="5" customWidth="1"/>
     <col min="14" max="14" width="25.83203125" style="5" customWidth="1"/>
     <col min="15" max="15" width="15" style="8" customWidth="1"/>
     <col min="16" max="16" width="65.83203125" style="5" customWidth="1"/>
@@ -1519,7 +1485,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1562,745 +1528,741 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="12" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="17" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="18" t="s">
         <v>63</v>
       </c>
       <c r="N2" s="9"/>
-      <c r="O2" s="12"/>
+      <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:16" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="10" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="26" t="s">
+      <c r="I3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19" t="s">
+      <c r="K3" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18" t="s">
         <v>30</v>
       </c>
       <c r="N3" s="9"/>
-      <c r="O3" s="12"/>
+      <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="12" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="19" t="s">
+      <c r="L4" s="17"/>
+      <c r="M4" s="18" t="s">
         <v>65</v>
       </c>
       <c r="N4" s="9"/>
-      <c r="O4" s="12"/>
+      <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="12" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19" t="s">
+      <c r="L5" s="17"/>
+      <c r="M5" s="18" t="s">
         <v>65</v>
       </c>
       <c r="N5" s="9"/>
-      <c r="O5" s="12"/>
+      <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="12" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19" t="s">
+      <c r="L6" s="17"/>
+      <c r="M6" s="18" t="s">
         <v>68</v>
       </c>
       <c r="N6" s="9"/>
-      <c r="O6" s="12"/>
+      <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="12" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19" t="s">
+      <c r="L7" s="17"/>
+      <c r="M7" s="18" t="s">
         <v>70</v>
       </c>
       <c r="N7" s="9"/>
-      <c r="O7" s="12"/>
+      <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="12" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="19" t="s">
+      <c r="K8" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18" t="s">
         <v>71</v>
       </c>
       <c r="N8" s="9"/>
-      <c r="O8" s="12"/>
+      <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:16" s="13" customFormat="1" ht="145.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="12" customFormat="1" ht="145.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19" t="s">
+      <c r="K9" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="12"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="10" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19" t="s">
+      <c r="K10" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18" t="s">
         <v>38</v>
       </c>
       <c r="N10" s="9"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="28" t="s">
-        <v>101</v>
+      <c r="O10" s="11"/>
+      <c r="P10" s="26" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="238" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="238" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="12"/>
+      <c r="K11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="10" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="19" t="s">
+      <c r="L12" s="17"/>
+      <c r="M12" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="10" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="19" t="s">
+      <c r="L13" s="17"/>
+      <c r="M13" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="12"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="11"/>
     </row>
-    <row r="14" spans="1:16" s="13" customFormat="1" ht="230.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="230.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="10" t="s">
+      <c r="C14" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="22" t="s">
+      <c r="K14" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="12"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11"/>
     </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" ht="230.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="230.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="C15" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="12"/>
+      <c r="K15" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:16" s="13" customFormat="1" ht="214.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="214.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="20" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:15" s="13" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" s="12" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="10" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="22" t="s">
-        <v>105</v>
+      <c r="K17" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="N17" s="9"/>
-      <c r="O17" s="12"/>
+      <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="1:15" s="13" customFormat="1" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" s="12" customFormat="1" ht="218" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="10" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="12"/>
+      <c r="K18" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" s="13"/>
+      <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:15" s="13" customFormat="1" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" s="12" customFormat="1" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="10" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="25" t="s">
+      <c r="K19" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="14"/>
-      <c r="O19" s="12"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15" s="13" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" s="12" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="10" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="12"/>
+      <c r="K20" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="13"/>
+      <c r="O20" s="11"/>
     </row>
-    <row r="21" spans="1:15" s="13" customFormat="1" ht="91.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="12" customFormat="1" ht="91.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="10" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25" t="s">
+      <c r="K21" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="22"/>
+      <c r="M21" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="N21" s="14"/>
-      <c r="O21" s="12"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H2:H21" r:id="rId1" display="https://user-center-thu.tunaikita.id/user"/>
-    <hyperlink ref="H15" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/caseconf/userQueryUserInfoByUserId/Case_userQueryUserInfoByUserId.xlsx
+++ b/src/main/resources/caseconf/userQueryUserInfoByUserId/Case_userQueryUserInfoByUserId.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform1111/src/main/resources/caseconf/userQueryUserInfoByUserId/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Data_Center_Platform/src/main/resources/caseconf/userQueryUserInfoByUserId/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="108">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -969,6 +969,25 @@
 "userId": " 699222007535509504",
 "dataType":"2",
 "dataDetail":"all"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": {
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 699222007535509504,
+        "name": "a4292d5e92be734194926548ec6e3cf6",
+        "certNo": "d508ebd3c36b9297a99a7354e0ae4f74",
+        "createTime": "2020-03-28 21:49:59",
+        "updateTime": "2020-03-28 21:49:59",
+   "mobileNo":"74108036c205aedb06337232d5a01f03",
+    "email":"03065f0f961760adf3d79341ac1972e2"
+    }
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1454,7 +1473,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="114" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F21" sqref="F21"/>
+      <selection pane="topRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2132,7 +2151,7 @@
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>104</v>
@@ -2151,7 +2170,7 @@
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="18" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="11"/>
@@ -2221,7 +2240,7 @@
       </c>
       <c r="L20" s="17"/>
       <c r="M20" s="18" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="N20" s="13"/>
       <c r="O20" s="11"/>
